--- a/docs/excel/LoveDialogue.xlsx
+++ b/docs/excel/LoveDialogue.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>29</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>30</v>
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>31</v>
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>32</v>
@@ -864,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>29</v>
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>30</v>
@@ -898,10 +898,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>31</v>
@@ -915,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>32</v>
@@ -1037,29 +1037,21 @@
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
